--- a/uk/scotland/COVID-19%2Bdaily%2Bdata%2B-%2Bby%2BNHS%2BBoard%2B-%2B17%2BFebruary%2B2021.xlsx
+++ b/uk/scotland/COVID-19%2Bdaily%2Bdata%2B-%2Bby%2BNHS%2BBoard%2B-%2B17%2BFebruary%2B2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u206456\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uG2243\A29207215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u208525\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\CM1A23XE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="11445" tabRatio="882"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="11450" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8182" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -7700,22 +7700,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.42578125" style="2"/>
+    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
@@ -7731,13 +7731,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
         <v>40</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>44</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>42</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>41</v>
       </c>
@@ -7806,15 +7806,15 @@
       <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.42578125" style="2"/>
+    <col min="1" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
     </row>
-    <row r="142" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="138" t="s">
         <v>58</v>
       </c>
@@ -7844,25 +7844,25 @@
   <dimension ref="A1:T368"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B332" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5" max="9" width="9.42578125" style="9" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="9" customWidth="1"/>
+    <col min="5" max="9" width="9.453125" style="9" customWidth="1"/>
     <col min="10" max="10" width="10" style="9" customWidth="1"/>
-    <col min="11" max="16" width="9.42578125" style="9" customWidth="1"/>
+    <col min="11" max="16" width="9.453125" style="9" customWidth="1"/>
     <col min="17" max="17" width="2" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="96" t="s">
         <v>54</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>43897</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43898</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43899</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43900</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43901</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43902</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43903</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43904</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43905</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43906</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43907</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43908</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43909</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>43910</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>43911</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>43912</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>43913</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>43914</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>43915</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>43916</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>43917</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>43918</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>43919</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>43920</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>43921</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>43922</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>43923</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>43924</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>43925</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>43926</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>43927</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>43928</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>43929</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>43930</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>43931</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>43932</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>43933</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>43934</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>43935</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>43936</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43937</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>43938</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>43939</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>43940</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>43941</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>43942</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>43943</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>43944</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>43945</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>43946</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>43947</v>
       </c>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="R54" s="24"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>43948</v>
       </c>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="R55" s="24"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>43949</v>
       </c>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="R56" s="25"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>43950</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>43951</v>
       </c>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="R58" s="24"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>43952</v>
       </c>
@@ -10757,7 +10757,7 @@
       <c r="R59" s="24"/>
       <c r="S59" s="24"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>43953</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>43954</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>43955</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>43956</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>43957</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>43958</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>43959</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>43960</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>43961</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>43962</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>43963</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>43964</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>43965</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>43966</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>43967</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>43968</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>43969</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>43970</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>43971</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>43972</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>43973</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>43974</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>43975</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>43976</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>43977</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>43978</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>43979</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>43980</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>43981</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>15382</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>43982</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>43983</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>15418</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>43984</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>15471</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>43985</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>43986</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>15553</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>43987</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>15582</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>43988</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>15603</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>43989</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>15621</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>43990</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>15639</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>43991</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>15653</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>43992</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>15665</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>43993</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>15682</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>43994</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>15709</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>43995</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>15730</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="27">
         <v>43996</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>15755</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>43997</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>18030</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>43998</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>18045</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>43999</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>18066</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>44000</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>18077</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>44001</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>18104</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>44002</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>18130</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>44003</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>18156</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>44004</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>18170</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>44005</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>18182</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>44006</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>18191</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>44007</v>
       </c>
@@ -13508,7 +13508,7 @@
       </c>
       <c r="Q114" s="29"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>44008</v>
       </c>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="Q115" s="29"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>44009</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>18228</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>44010</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>18236</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>44011</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>18241</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>44012</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>18251</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>44013</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>18259</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>44014</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>18264</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>44015</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>18276</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>44016</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>18287</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>44017</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>18296</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>44018</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>44019</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>18302</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>44020</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>18309</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>44021</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>18315</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>44022</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>18333</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>44023</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>18340</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>44024</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>18359</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>44025</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>18365</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>44026</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>18368</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>44027</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>18373</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>44028</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>18384</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>44029</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>18401</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>44030</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>18422</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>44031</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>44032</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>18452</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>44033</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>18474</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>44034</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>18484</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>44035</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>44036</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>44037</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>18547</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>44038</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>18551</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>44039</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>18554</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>44040</v>
       </c>
@@ -15165,7 +15165,7 @@
         <v>18558</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>44041</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>18580</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>44042</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>18597</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>44043</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>18627</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>44044</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>18645</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>44045</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>18676</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>44046</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>18694</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>44047</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>18717</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>44048</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>18781</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>44049</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>18847</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>44050</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>44051</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>18950</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>44052</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>44053</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>44054</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>19079</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>44055</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>19126</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>44056</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>44057</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>19238</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>44058</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>19289</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>44059</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>19332</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>44060</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>19358</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>44061</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>19407</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>44062</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>19457</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>44063</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>19534</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>44064</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>19605</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>44065</v>
       </c>
@@ -16428,7 +16428,7 @@
       </c>
       <c r="Q172" s="35"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>44066</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>19811</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>44067</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>19877</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>44068</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>19921</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>44069</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>19988</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>44070</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>20056</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>44071</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>20107</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>44072</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>20195</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>44073</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>20318</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>44074</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>20478</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>44075</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>20632</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>44076</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>20788</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>44077</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>20889</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>44078</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>44079</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>21189</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>44080</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>21397</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>44081</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>21543</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>44082</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>21719</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>44083</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>21878</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>44084</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>22039</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>44085</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>22214</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>44086</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>22435</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>44087</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>22679</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>44088</v>
       </c>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="R195" s="29"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>44089</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>23016</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>44090</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>23283</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>44091</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>44092</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>23776</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>44093</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>24126</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>44094</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>24371</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>44095</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>24626</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>44096</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>25009</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>44097</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>25495</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>44098</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>25960</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>44099</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>26518</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>44100</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>27232</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>44101</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>27576</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>44102</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>27798</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>44103</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>28604</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>44104</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>29244</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>44105</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>29912</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>44106</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>30687</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>44107</v>
       </c>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="S214" s="97"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>44108</v>
       </c>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="S215" s="97"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>44109</v>
       </c>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="S216" s="97"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>44110</v>
       </c>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="S217" s="97"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>44111</v>
       </c>
@@ -18740,7 +18740,7 @@
       </c>
       <c r="S218" s="97"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>44112</v>
       </c>
@@ -18791,7 +18791,7 @@
       </c>
       <c r="S219" s="97"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>44113</v>
       </c>
@@ -18842,7 +18842,7 @@
       </c>
       <c r="S220" s="97"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>44114</v>
       </c>
@@ -18893,7 +18893,7 @@
       </c>
       <c r="S221" s="97"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>44115</v>
       </c>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="S222" s="97"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>44116</v>
       </c>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="S223" s="97"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>44117</v>
       </c>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="S224" s="97"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>44118</v>
       </c>
@@ -19097,7 +19097,7 @@
       </c>
       <c r="S225" s="97"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>44119</v>
       </c>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="S226" s="97"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
         <v>44120</v>
       </c>
@@ -19199,7 +19199,7 @@
       </c>
       <c r="S227" s="97"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>44121</v>
       </c>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="S228" s="98"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>44122</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>44123</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>47708</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>44124</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>49164</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>44125</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>50903</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>44126</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>52615</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>44127</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>54016</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>44128</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>55449</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>44129</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>56752</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>44130</v>
       </c>
@@ -19704,7 +19704,7 @@
       </c>
       <c r="R237" s="113"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>44131</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>59201</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>44132</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>60403</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>44133</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>61531</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>44134</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>62812</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>44135</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>63913</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>44136</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>65061</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>44137</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>66012</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>44138</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>67011</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>44139</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>68444</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>44140</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>69660</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>44141</v>
       </c>
@@ -20254,7 +20254,7 @@
         <v>70732</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>44142</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>72328</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>44143</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>73443</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>44144</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>74355</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>44145</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>75187</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
         <v>44146</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>76448</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
         <v>44147</v>
       </c>
@@ -20554,7 +20554,7 @@
         <v>77660</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="4">
         <v>44148</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>79017</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
         <v>44149</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>80135</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
         <v>44150</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>81294</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
         <v>44151</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>82011</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259" s="4">
         <v>44152</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>83259</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
         <v>44153</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>84523</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261" s="4">
         <v>44154</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>85612</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
         <v>44155</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>86630</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A263" s="4">
         <v>44156</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>87517</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
         <v>44157</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>88361</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A265" s="4">
         <v>44158</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>89310</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
         <v>44159</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>90081</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A267" s="4">
         <v>44160</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>90961</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
         <v>44161</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>92186</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A269" s="4">
         <v>44162</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>93155</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
         <v>44163</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>93943</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A271" s="4">
         <v>44164</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>94689</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A272" s="4">
         <v>44165</v>
       </c>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="R272" s="131"/>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
         <v>44166</v>
       </c>
@@ -21505,7 +21505,7 @@
         <v>95811</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="4">
         <v>44167</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>96762</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
         <v>44168</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>97720</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" s="4">
         <v>44169</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>98686</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
         <v>44170</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>99463</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="4">
         <v>44171</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>100106</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
         <v>44172</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>100783</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" s="4">
         <v>44173</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>101475</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
         <v>44174</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>102372</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" s="4">
         <v>44175</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>103305</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
         <v>44176</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>104306</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" s="4">
         <v>44177</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>105370</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
         <v>44178</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v>106170</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" s="4">
         <v>44179</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>106904</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" s="4">
         <v>44180</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>107749</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
         <v>44181</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>108438</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="4">
         <v>44182</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>109296</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
         <v>44183</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>110040</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A291" s="133">
         <v>44184</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>110612</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="133">
         <v>44185</v>
       </c>
@@ -22455,7 +22455,7 @@
         <v>111546</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="133">
         <v>44186</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>113050</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" s="133">
         <v>44187</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>114366</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" s="133">
         <v>44188</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>115556</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="133">
         <v>44189</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>116870</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="133">
         <v>44190</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>118035</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" s="133">
         <v>44191</v>
       </c>
@@ -22755,7 +22755,7 @@
         <v>119184</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" s="133">
         <v>44192</v>
       </c>
@@ -22805,7 +22805,7 @@
         <v>119924</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="133">
         <v>44193</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>120891</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" s="133">
         <v>44194</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>122786</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" s="133">
         <v>44195</v>
       </c>
@@ -22955,7 +22955,7 @@
         <v>124831</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" s="133">
         <v>44196</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>127453</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" s="133">
         <v>44197</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>129992</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="133">
         <v>44198</v>
       </c>
@@ -23105,7 +23105,7 @@
         <v>132129</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="133">
         <v>44199</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>134593</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" s="133">
         <v>44200</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>136498</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" s="133">
         <v>44201</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>139027</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" s="133">
         <v>44202</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>141066</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" s="133">
         <v>44203</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>143715</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="133">
         <v>44204</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>146024</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="133">
         <v>44205</v>
       </c>
@@ -23455,7 +23455,7 @@
         <v>147889</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" s="133">
         <v>44206</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>149766</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" s="133">
         <v>44207</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>151548</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" s="133">
         <v>44208</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>153423</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" s="133">
         <v>44209</v>
       </c>
@@ -23655,7 +23655,7 @@
         <v>155372</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" s="133">
         <v>44210</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>157079</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" s="133">
         <v>44211</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>159239</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" s="133">
         <v>44212</v>
       </c>
@@ -23805,7 +23805,7 @@
         <v>160992</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" s="133">
         <v>44213</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>162333</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A321" s="133">
         <v>44214</v>
       </c>
@@ -23905,7 +23905,7 @@
         <v>163762</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A322" s="133">
         <v>44215</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>164927</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A323" s="133">
         <v>44216</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>166583</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A324" s="133">
         <v>44217</v>
       </c>
@@ -24055,7 +24055,7 @@
         <v>168219</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A325" s="133">
         <v>44218</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>169699</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A326" s="133">
         <v>44219</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>171006</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A327" s="133">
         <v>44220</v>
       </c>
@@ -24205,7 +24205,7 @@
         <v>172201</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A328" s="133">
         <v>44221</v>
       </c>
@@ -24258,7 +24258,7 @@
       <c r="R328" s="24"/>
       <c r="T328" s="35"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329" s="133">
         <v>44222</v>
       </c>
@@ -24311,7 +24311,7 @@
       <c r="R329" s="24"/>
       <c r="T329" s="35"/>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330" s="133">
         <v>44223</v>
       </c>
@@ -24364,7 +24364,7 @@
       <c r="R330" s="24"/>
       <c r="T330" s="35"/>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A331" s="133">
         <v>44224</v>
       </c>
@@ -24417,7 +24417,7 @@
       <c r="R331" s="24"/>
       <c r="T331" s="35"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A332" s="147">
         <v>44225</v>
       </c>
@@ -24470,7 +24470,7 @@
       <c r="R332" s="24"/>
       <c r="T332" s="35"/>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A333" s="147">
         <v>44226</v>
       </c>
@@ -24523,7 +24523,7 @@
       <c r="R333" s="24"/>
       <c r="T333" s="35"/>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A334" s="147">
         <v>44227</v>
       </c>
@@ -24576,7 +24576,7 @@
       <c r="R334" s="24"/>
       <c r="T334" s="35"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A335" s="147">
         <v>44228</v>
       </c>
@@ -24629,7 +24629,7 @@
       <c r="R335" s="148"/>
       <c r="T335" s="35"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A336" s="147">
         <v>44229</v>
       </c>
@@ -24682,7 +24682,7 @@
       <c r="R336" s="24"/>
       <c r="T336" s="35"/>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A337" s="147">
         <v>44230</v>
       </c>
@@ -24735,7 +24735,7 @@
       <c r="R337" s="24"/>
       <c r="T337" s="35"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338" s="147">
         <v>44231</v>
       </c>
@@ -24787,7 +24787,7 @@
       <c r="Q338" s="24"/>
       <c r="R338" s="24"/>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A339" s="147">
         <v>44232</v>
       </c>
@@ -24839,7 +24839,7 @@
       <c r="Q339" s="24"/>
       <c r="R339" s="24"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340" s="147">
         <v>44233</v>
       </c>
@@ -24892,7 +24892,7 @@
       <c r="R340" s="24"/>
       <c r="T340" s="35"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A341" s="147">
         <v>44234</v>
       </c>
@@ -24947,7 +24947,7 @@
       </c>
       <c r="S341" s="24"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A342" s="147">
         <v>44235</v>
       </c>
@@ -25001,7 +25001,7 @@
       <c r="S342" s="24"/>
       <c r="T342" s="35"/>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A343" s="147">
         <v>44236</v>
       </c>
@@ -25054,7 +25054,7 @@
       <c r="R343" s="24"/>
       <c r="S343" s="24"/>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344" s="147">
         <v>44237</v>
       </c>
@@ -25107,7 +25107,7 @@
       <c r="R344" s="24"/>
       <c r="S344" s="24"/>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345" s="147">
         <v>44238</v>
       </c>
@@ -25160,7 +25160,7 @@
       <c r="R345" s="24"/>
       <c r="S345" s="24"/>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346" s="147">
         <v>44239</v>
       </c>
@@ -25213,7 +25213,7 @@
       <c r="R346" s="24"/>
       <c r="S346" s="24"/>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A347" s="147">
         <v>44240</v>
       </c>
@@ -25266,7 +25266,7 @@
       <c r="R347" s="24"/>
       <c r="S347" s="24"/>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A348" s="147">
         <v>44241</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>191816</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A349" s="147">
         <v>44242</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>192375</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350" s="147">
         <v>44243</v>
       </c>
@@ -25416,55 +25416,102 @@
         <v>193148</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B351" s="150"/>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A351" s="147">
+        <v>44244</v>
+      </c>
+      <c r="B351" s="140">
+        <v>14812</v>
+      </c>
+      <c r="C351" s="140">
+        <v>2758</v>
+      </c>
+      <c r="D351" s="140">
+        <v>3940</v>
+      </c>
+      <c r="E351" s="140">
+        <v>9460</v>
+      </c>
+      <c r="F351" s="140">
+        <v>9892</v>
+      </c>
+      <c r="G351" s="140">
+        <v>13177</v>
+      </c>
+      <c r="H351" s="140">
+        <v>60671</v>
+      </c>
+      <c r="I351" s="140">
+        <v>4450</v>
+      </c>
+      <c r="J351" s="140">
+        <v>35514</v>
+      </c>
+      <c r="K351" s="140">
+        <v>26279</v>
+      </c>
+      <c r="L351" s="140">
+        <v>69</v>
+      </c>
+      <c r="M351" s="140">
+        <v>212</v>
+      </c>
+      <c r="N351" s="140">
+        <v>12781</v>
+      </c>
+      <c r="O351" s="137">
+        <v>254</v>
+      </c>
+      <c r="P351" s="123">
+        <v>194269</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B352" s="150"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B353" s="150"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B354" s="150"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B355" s="150"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B356" s="150"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B357" s="150"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B358" s="150"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B359" s="150"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B360" s="150"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B361" s="150"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B362" s="150"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B363" s="150"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B364" s="151"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B365" s="22"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B366" s="152"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B368" s="153"/>
     </row>
   </sheetData>
@@ -25482,25 +25529,25 @@
   <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:I1"/>
+      <selection pane="bottomRight" activeCell="P170" sqref="P170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="2"/>
-    <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" style="2"/>
-    <col min="8" max="8" width="9.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="2"/>
+    <col min="1" max="1" width="11.90625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" style="2"/>
+    <col min="4" max="4" width="9.54296875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9.453125" style="2"/>
+    <col min="8" max="8" width="9.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="2"/>
     <col min="10" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.42578125" style="2"/>
+    <col min="11" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="155" t="s">
         <v>39</v>
       </c>
@@ -25515,7 +25562,7 @@
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="154" t="s">
         <v>26</v>
       </c>
@@ -25524,7 +25571,7 @@
       <c r="D2" s="154"/>
       <c r="E2" s="154"/>
     </row>
-    <row r="3" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A3" s="95" t="s">
         <v>53</v>
       </c>
@@ -25577,7 +25624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>44085</v>
       </c>
@@ -25630,7 +25677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>44086</v>
       </c>
@@ -25683,7 +25730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>44087</v>
       </c>
@@ -25736,7 +25783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>44088</v>
       </c>
@@ -25789,7 +25836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>44089</v>
       </c>
@@ -25842,7 +25889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>44090</v>
       </c>
@@ -25895,7 +25942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>44091</v>
       </c>
@@ -25948,7 +25995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>44092</v>
       </c>
@@ -26001,7 +26048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>44093</v>
       </c>
@@ -26054,7 +26101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>44094</v>
       </c>
@@ -26107,7 +26154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>44095</v>
       </c>
@@ -26160,7 +26207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>44096</v>
       </c>
@@ -26213,7 +26260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>44097</v>
       </c>
@@ -26266,7 +26313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>44098</v>
       </c>
@@ -26319,7 +26366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>44099</v>
       </c>
@@ -26372,7 +26419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>44100</v>
       </c>
@@ -26425,7 +26472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>44101</v>
       </c>
@@ -26478,7 +26525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>44102</v>
       </c>
@@ -26531,7 +26578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>44103</v>
       </c>
@@ -26584,7 +26631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>44104</v>
       </c>
@@ -26637,7 +26684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>44105</v>
       </c>
@@ -26690,7 +26737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>44106</v>
       </c>
@@ -26743,7 +26790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>44107</v>
       </c>
@@ -26796,7 +26843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>44108</v>
       </c>
@@ -26849,7 +26896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>44109</v>
       </c>
@@ -26902,7 +26949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>44110</v>
       </c>
@@ -26955,7 +27002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>44111</v>
       </c>
@@ -27008,7 +27055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>44112</v>
       </c>
@@ -27061,7 +27108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>44113</v>
       </c>
@@ -27115,7 +27162,7 @@
       </c>
       <c r="R32" s="29"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>44114</v>
       </c>
@@ -27169,7 +27216,7 @@
       </c>
       <c r="R33" s="29"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>44115</v>
       </c>
@@ -27222,7 +27269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>44116</v>
       </c>
@@ -27275,7 +27322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>44117</v>
       </c>
@@ -27328,7 +27375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>44118</v>
       </c>
@@ -27381,7 +27428,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
         <v>44119</v>
       </c>
@@ -27434,7 +27481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>44120</v>
       </c>
@@ -27487,7 +27534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>44121</v>
       </c>
@@ -27540,7 +27587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
         <v>44122</v>
       </c>
@@ -27593,7 +27640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
         <v>44123</v>
       </c>
@@ -27646,7 +27693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <v>44124</v>
       </c>
@@ -27700,7 +27747,7 @@
       </c>
       <c r="R43" s="29"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <v>44125</v>
       </c>
@@ -27753,7 +27800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
         <v>44126</v>
       </c>
@@ -27806,7 +27853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
         <v>44127</v>
       </c>
@@ -27859,7 +27906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>44128</v>
       </c>
@@ -27912,7 +27959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>44129</v>
       </c>
@@ -27965,7 +28012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>44130</v>
       </c>
@@ -28018,7 +28065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>44131</v>
       </c>
@@ -28071,7 +28118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>44132</v>
       </c>
@@ -28124,7 +28171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>44133</v>
       </c>
@@ -28177,7 +28224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>44134</v>
       </c>
@@ -28230,7 +28277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>44135</v>
       </c>
@@ -28283,7 +28330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>44136</v>
       </c>
@@ -28336,7 +28383,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>44137</v>
       </c>
@@ -28389,7 +28436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
         <v>44138</v>
       </c>
@@ -28442,7 +28489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>44139</v>
       </c>
@@ -28495,7 +28542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>44140</v>
       </c>
@@ -28548,7 +28595,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>44141</v>
       </c>
@@ -28601,7 +28648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>44142</v>
       </c>
@@ -28654,7 +28701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>44143</v>
       </c>
@@ -28707,7 +28754,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>44144</v>
       </c>
@@ -28760,7 +28807,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>44145</v>
       </c>
@@ -28813,7 +28860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>44146</v>
       </c>
@@ -28866,7 +28913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>44147</v>
       </c>
@@ -28919,7 +28966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>44148</v>
       </c>
@@ -28972,7 +29019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>44149</v>
       </c>
@@ -29025,7 +29072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>44150</v>
       </c>
@@ -29078,7 +29125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>44151</v>
       </c>
@@ -29131,7 +29178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>44152</v>
       </c>
@@ -29184,7 +29231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>44153</v>
       </c>
@@ -29237,7 +29284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>44154</v>
       </c>
@@ -29290,7 +29337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>44155</v>
       </c>
@@ -29343,7 +29390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>44156</v>
       </c>
@@ -29396,7 +29443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>44157</v>
       </c>
@@ -29449,7 +29496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>44158</v>
       </c>
@@ -29502,7 +29549,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>44159</v>
       </c>
@@ -29555,7 +29602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>44160</v>
       </c>
@@ -29609,7 +29656,7 @@
       </c>
       <c r="R79" s="29"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>44161</v>
       </c>
@@ -29662,7 +29709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>44162</v>
       </c>
@@ -29715,7 +29762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="130">
         <v>44163</v>
       </c>
@@ -29768,7 +29815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="130">
         <v>44164</v>
       </c>
@@ -29822,7 +29869,7 @@
       </c>
       <c r="R83" s="128"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="130">
         <v>44165</v>
       </c>
@@ -29875,7 +29922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>44166</v>
       </c>
@@ -29928,7 +29975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>44167</v>
       </c>
@@ -29981,7 +30028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>44168</v>
       </c>
@@ -30034,7 +30081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>44169</v>
       </c>
@@ -30087,7 +30134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>44170</v>
       </c>
@@ -30140,7 +30187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>44171</v>
       </c>
@@ -30193,7 +30240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>44172</v>
       </c>
@@ -30246,7 +30293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>44173</v>
       </c>
@@ -30299,7 +30346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>44174</v>
       </c>
@@ -30352,7 +30399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>44175</v>
       </c>
@@ -30405,7 +30452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>44176</v>
       </c>
@@ -30458,7 +30505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>44177</v>
       </c>
@@ -30511,7 +30558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>44178</v>
       </c>
@@ -30564,7 +30611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>44179</v>
       </c>
@@ -30617,7 +30664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>44180</v>
       </c>
@@ -30670,7 +30717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>44181</v>
       </c>
@@ -30723,7 +30770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>44182</v>
       </c>
@@ -30776,7 +30823,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>44183</v>
       </c>
@@ -30829,7 +30876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="130">
         <v>44184</v>
       </c>
@@ -30882,7 +30929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="36">
         <v>44185</v>
       </c>
@@ -30935,7 +30982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="36">
         <v>44186</v>
       </c>
@@ -30988,7 +31035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="36">
         <v>44187</v>
       </c>
@@ -31041,7 +31088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="36">
         <v>44188</v>
       </c>
@@ -31094,7 +31141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="36">
         <v>44189</v>
       </c>
@@ -31147,7 +31194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="36">
         <v>44190</v>
       </c>
@@ -31200,7 +31247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="36">
         <v>44191</v>
       </c>
@@ -31253,7 +31300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="36">
         <v>44192</v>
       </c>
@@ -31306,7 +31353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="36">
         <v>44193</v>
       </c>
@@ -31359,7 +31406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="36">
         <v>44194</v>
       </c>
@@ -31412,7 +31459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="36">
         <v>44195</v>
       </c>
@@ -31465,7 +31512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="36">
         <v>44196</v>
       </c>
@@ -31518,7 +31565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="36">
         <v>44197</v>
       </c>
@@ -31571,7 +31618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="36">
         <v>44198</v>
       </c>
@@ -31624,7 +31671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="36">
         <v>44199</v>
       </c>
@@ -31677,7 +31724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="36">
         <v>44200</v>
       </c>
@@ -31730,7 +31777,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="36">
         <v>44201</v>
       </c>
@@ -31783,7 +31830,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="36">
         <v>44202</v>
       </c>
@@ -31836,7 +31883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="36">
         <v>44203</v>
       </c>
@@ -31889,7 +31936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="36">
         <v>44204</v>
       </c>
@@ -31942,7 +31989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="36">
         <v>44205</v>
       </c>
@@ -31995,7 +32042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="36">
         <v>44206</v>
       </c>
@@ -32048,7 +32095,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="36">
         <v>44207</v>
       </c>
@@ -32101,7 +32148,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="130">
         <v>44208</v>
       </c>
@@ -32154,7 +32201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="36">
         <v>44209</v>
       </c>
@@ -32207,7 +32254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="36">
         <v>44210</v>
       </c>
@@ -32260,7 +32307,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="36">
         <v>44211</v>
       </c>
@@ -32313,7 +32360,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="36">
         <v>44212</v>
       </c>
@@ -32367,7 +32414,7 @@
       </c>
       <c r="R131" s="128"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="36">
         <v>44213</v>
       </c>
@@ -32420,7 +32467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="36">
         <v>44214</v>
       </c>
@@ -32473,7 +32520,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="36">
         <v>44215</v>
       </c>
@@ -32526,7 +32573,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="36">
         <v>44216</v>
       </c>
@@ -32579,7 +32626,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="36">
         <v>44217</v>
       </c>
@@ -32632,7 +32679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="36">
         <v>44218</v>
       </c>
@@ -32685,7 +32732,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="36">
         <v>44219</v>
       </c>
@@ -32738,7 +32785,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="36">
         <v>44220</v>
       </c>
@@ -32791,7 +32838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="36">
         <v>44221</v>
       </c>
@@ -32844,7 +32891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="36">
         <v>44222</v>
       </c>
@@ -32897,7 +32944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="36">
         <v>44223</v>
       </c>
@@ -32950,7 +32997,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="36">
         <v>44224</v>
       </c>
@@ -33003,7 +33050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="36">
         <v>44225</v>
       </c>
@@ -33056,7 +33103,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="36">
         <v>44226</v>
       </c>
@@ -33109,7 +33156,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="36">
         <v>44227</v>
       </c>
@@ -33162,7 +33209,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="36">
         <v>44228</v>
       </c>
@@ -33215,7 +33262,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="36">
         <v>44229</v>
       </c>
@@ -33268,7 +33315,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="36">
         <v>44230</v>
       </c>
@@ -33321,7 +33368,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="36">
         <v>44231</v>
       </c>
@@ -33374,7 +33421,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="36">
         <v>44232</v>
       </c>
@@ -33427,7 +33474,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="36">
         <v>44233</v>
       </c>
@@ -33480,7 +33527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="36">
         <v>44234</v>
       </c>
@@ -33533,7 +33580,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="36">
         <v>44235</v>
       </c>
@@ -33586,7 +33633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="36">
         <v>44236</v>
       </c>
@@ -33639,7 +33686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="36">
         <v>44237</v>
       </c>
@@ -33692,7 +33739,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="36">
         <v>44238</v>
       </c>
@@ -33745,7 +33792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="36">
         <v>44239</v>
       </c>
@@ -33798,7 +33845,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="36">
         <v>44240</v>
       </c>
@@ -33852,7 +33899,7 @@
       </c>
       <c r="R159" s="128"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="36">
         <v>44241</v>
       </c>
@@ -33905,7 +33952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="36">
         <v>44242</v>
       </c>
@@ -33958,7 +34005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="36">
         <v>44243</v>
       </c>
@@ -34011,7 +34058,59 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:17" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="36">
+        <v>44244</v>
+      </c>
+      <c r="B163" s="2">
+        <v>12</v>
+      </c>
+      <c r="C163" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2">
+        <v>5</v>
+      </c>
+      <c r="E163" s="2">
+        <v>5</v>
+      </c>
+      <c r="F163" s="2">
+        <v>9</v>
+      </c>
+      <c r="G163" s="2">
+        <v>5</v>
+      </c>
+      <c r="H163" s="2">
+        <v>22</v>
+      </c>
+      <c r="I163" s="2">
+        <v>7</v>
+      </c>
+      <c r="J163" s="2">
+        <v>19</v>
+      </c>
+      <c r="K163" s="2">
+        <v>10</v>
+      </c>
+      <c r="L163" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="M163" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="N163" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="O163" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="P163" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q163" s="100">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
@@ -34027,26 +34126,26 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:R162"/>
+  <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:I1"/>
+      <selection pane="bottomRight" activeCell="P174" sqref="P174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="2"/>
+    <col min="1" max="1" width="14.54296875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" style="2"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="9" width="9.42578125" style="2"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.42578125" style="2"/>
+    <col min="5" max="9" width="9.453125" style="2"/>
+    <col min="10" max="10" width="10.54296875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="155" t="s">
         <v>57</v>
       </c>
@@ -34059,7 +34158,7 @@
       <c r="H1" s="155"/>
       <c r="I1" s="155"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="156" t="s">
         <v>26</v>
       </c>
@@ -34068,7 +34167,7 @@
       <c r="D2" s="156"/>
       <c r="E2" s="156"/>
     </row>
-    <row r="3" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A3" s="95" t="s">
         <v>53</v>
       </c>
@@ -34121,7 +34220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <v>44085</v>
       </c>
@@ -34174,7 +34273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>44086</v>
       </c>
@@ -34227,7 +34326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>44087</v>
       </c>
@@ -34280,7 +34379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>44088</v>
       </c>
@@ -34333,7 +34432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>44089</v>
       </c>
@@ -34386,7 +34485,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>44090</v>
       </c>
@@ -34439,7 +34538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>44091</v>
       </c>
@@ -34492,7 +34591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>44092</v>
       </c>
@@ -34545,7 +34644,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>44093</v>
       </c>
@@ -34598,7 +34697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>44094</v>
       </c>
@@ -34651,7 +34750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>44095</v>
       </c>
@@ -34704,7 +34803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>44096</v>
       </c>
@@ -34757,7 +34856,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>44097</v>
       </c>
@@ -34810,7 +34909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>44098</v>
       </c>
@@ -34863,7 +34962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>44099</v>
       </c>
@@ -34916,7 +35015,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>44100</v>
       </c>
@@ -34969,7 +35068,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>44101</v>
       </c>
@@ -35022,7 +35121,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>44102</v>
       </c>
@@ -35075,7 +35174,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>44103</v>
       </c>
@@ -35128,7 +35227,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>44104</v>
       </c>
@@ -35181,7 +35280,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>44105</v>
       </c>
@@ -35234,7 +35333,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>44106</v>
       </c>
@@ -35287,7 +35386,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>44107</v>
       </c>
@@ -35340,7 +35439,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>44108</v>
       </c>
@@ -35393,7 +35492,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>44109</v>
       </c>
@@ -35446,7 +35545,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>44110</v>
       </c>
@@ -35499,7 +35598,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>44111</v>
       </c>
@@ -35552,7 +35651,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>44112</v>
       </c>
@@ -35605,7 +35704,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>44113</v>
       </c>
@@ -35658,7 +35757,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>44114</v>
       </c>
@@ -35712,7 +35811,7 @@
       </c>
       <c r="R33" s="29"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>44115</v>
       </c>
@@ -35765,7 +35864,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>44116</v>
       </c>
@@ -35818,7 +35917,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>44117</v>
       </c>
@@ -35871,7 +35970,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>44118</v>
       </c>
@@ -35924,7 +36023,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
         <v>44119</v>
       </c>
@@ -35978,7 +36077,7 @@
       </c>
       <c r="R38" s="29"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>44120</v>
       </c>
@@ -36031,7 +36130,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>44121</v>
       </c>
@@ -36084,7 +36183,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
         <v>44122</v>
       </c>
@@ -36137,7 +36236,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
         <v>44123</v>
       </c>
@@ -36190,7 +36289,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <v>44124</v>
       </c>
@@ -36243,7 +36342,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <v>44125</v>
       </c>
@@ -36296,7 +36395,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
         <v>44126</v>
       </c>
@@ -36349,7 +36448,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
         <v>44127</v>
       </c>
@@ -36402,7 +36501,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>44128</v>
       </c>
@@ -36455,7 +36554,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>44129</v>
       </c>
@@ -36508,7 +36607,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>44130</v>
       </c>
@@ -36561,7 +36660,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>44131</v>
       </c>
@@ -36614,7 +36713,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>44132</v>
       </c>
@@ -36667,7 +36766,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>44133</v>
       </c>
@@ -36720,7 +36819,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>44134</v>
       </c>
@@ -36773,7 +36872,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>44135</v>
       </c>
@@ -36826,7 +36925,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>44136</v>
       </c>
@@ -36879,7 +36978,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>44137</v>
       </c>
@@ -36932,7 +37031,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
         <v>44138</v>
       </c>
@@ -36985,7 +37084,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>44139</v>
       </c>
@@ -37038,7 +37137,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>44140</v>
       </c>
@@ -37091,7 +37190,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>44141</v>
       </c>
@@ -37144,7 +37243,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>44142</v>
       </c>
@@ -37197,7 +37296,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>44143</v>
       </c>
@@ -37250,7 +37349,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>44144</v>
       </c>
@@ -37303,7 +37402,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>44145</v>
       </c>
@@ -37356,7 +37455,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>44146</v>
       </c>
@@ -37409,7 +37508,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>44147</v>
       </c>
@@ -37462,7 +37561,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>44148</v>
       </c>
@@ -37515,7 +37614,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>44149</v>
       </c>
@@ -37568,7 +37667,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>44150</v>
       </c>
@@ -37621,7 +37720,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>44151</v>
       </c>
@@ -37674,7 +37773,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>44152</v>
       </c>
@@ -37728,7 +37827,7 @@
       </c>
       <c r="R71" s="29"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>44153</v>
       </c>
@@ -37781,7 +37880,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>44154</v>
       </c>
@@ -37834,7 +37933,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>44155</v>
       </c>
@@ -37887,7 +37986,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>44156</v>
       </c>
@@ -37940,7 +38039,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>44157</v>
       </c>
@@ -37993,7 +38092,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>44158</v>
       </c>
@@ -38046,7 +38145,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>44159</v>
       </c>
@@ -38099,7 +38198,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>44160</v>
       </c>
@@ -38153,7 +38252,7 @@
       </c>
       <c r="R79" s="29"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>44161</v>
       </c>
@@ -38206,7 +38305,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>44162</v>
       </c>
@@ -38259,7 +38358,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
         <v>44163</v>
       </c>
@@ -38312,7 +38411,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
         <v>44164</v>
       </c>
@@ -38365,7 +38464,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
         <v>44165</v>
       </c>
@@ -38418,7 +38517,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>44166</v>
       </c>
@@ -38471,7 +38570,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>44167</v>
       </c>
@@ -38524,7 +38623,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>44168</v>
       </c>
@@ -38577,7 +38676,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>44169</v>
       </c>
@@ -38630,7 +38729,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>44170</v>
       </c>
@@ -38683,7 +38782,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>44171</v>
       </c>
@@ -38736,7 +38835,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>44172</v>
       </c>
@@ -38789,7 +38888,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>44173</v>
       </c>
@@ -38842,7 +38941,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>44174</v>
       </c>
@@ -38895,7 +38994,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>44175</v>
       </c>
@@ -38948,7 +39047,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>44176</v>
       </c>
@@ -39001,7 +39100,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>44177</v>
       </c>
@@ -39054,7 +39153,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>44178</v>
       </c>
@@ -39107,7 +39206,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>44179</v>
       </c>
@@ -39160,7 +39259,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>44180</v>
       </c>
@@ -39213,7 +39312,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>44181</v>
       </c>
@@ -39266,7 +39365,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>44182</v>
       </c>
@@ -39319,7 +39418,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>44183</v>
       </c>
@@ -39372,7 +39471,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="130">
         <v>44184</v>
       </c>
@@ -39425,7 +39524,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="36">
         <v>44185</v>
       </c>
@@ -39478,7 +39577,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="36">
         <v>44186</v>
       </c>
@@ -39531,7 +39630,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="36">
         <v>44187</v>
       </c>
@@ -39584,7 +39683,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="36">
         <v>44188</v>
       </c>
@@ -39637,7 +39736,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="36">
         <v>44189</v>
       </c>
@@ -39690,7 +39789,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="36">
         <v>44190</v>
       </c>
@@ -39743,7 +39842,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="130">
         <v>44191</v>
       </c>
@@ -39796,7 +39895,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="36">
         <v>44192</v>
       </c>
@@ -39849,7 +39948,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="36">
         <v>44193</v>
       </c>
@@ -39902,7 +40001,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="36">
         <v>44194</v>
       </c>
@@ -39955,7 +40054,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="36">
         <v>44195</v>
       </c>
@@ -40008,7 +40107,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="36">
         <v>44196</v>
       </c>
@@ -40061,7 +40160,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="130">
         <v>44197</v>
       </c>
@@ -40114,7 +40213,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="36">
         <v>44198</v>
       </c>
@@ -40167,7 +40266,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="36">
         <v>44199</v>
       </c>
@@ -40220,7 +40319,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="36">
         <v>44200</v>
       </c>
@@ -40273,7 +40372,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="36">
         <v>44201</v>
       </c>
@@ -40326,7 +40425,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="36">
         <v>44202</v>
       </c>
@@ -40379,7 +40478,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="36">
         <v>44203</v>
       </c>
@@ -40432,7 +40531,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="36">
         <v>44204</v>
       </c>
@@ -40485,7 +40584,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="36">
         <v>44205</v>
       </c>
@@ -40538,7 +40637,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="36">
         <v>44206</v>
       </c>
@@ -40591,7 +40690,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="36">
         <v>44207</v>
       </c>
@@ -40644,7 +40743,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="130">
         <v>44208</v>
       </c>
@@ -40697,7 +40796,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="36">
         <v>44209</v>
       </c>
@@ -40750,7 +40849,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="36">
         <v>44210</v>
       </c>
@@ -40803,7 +40902,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="36">
         <v>44211</v>
       </c>
@@ -40856,7 +40955,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="36">
         <v>44212</v>
       </c>
@@ -40909,7 +41008,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="36">
         <v>44213</v>
       </c>
@@ -40962,7 +41061,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="36">
         <v>44214</v>
       </c>
@@ -41015,7 +41114,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="36">
         <v>44215</v>
       </c>
@@ -41068,7 +41167,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="36">
         <v>44216</v>
       </c>
@@ -41121,7 +41220,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="36">
         <v>44217</v>
       </c>
@@ -41174,7 +41273,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="36">
         <v>44218</v>
       </c>
@@ -41227,7 +41326,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="36">
         <v>44219</v>
       </c>
@@ -41280,7 +41379,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="36">
         <v>44220</v>
       </c>
@@ -41333,7 +41432,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="36">
         <v>44221</v>
       </c>
@@ -41386,7 +41485,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="36">
         <v>44222</v>
       </c>
@@ -41439,7 +41538,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="36">
         <v>44223</v>
       </c>
@@ -41492,7 +41591,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="36">
         <v>44224</v>
       </c>
@@ -41545,7 +41644,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="36">
         <v>44225</v>
       </c>
@@ -41598,7 +41697,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="36">
         <v>44226</v>
       </c>
@@ -41651,7 +41750,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="36">
         <v>44227</v>
       </c>
@@ -41704,7 +41803,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="36">
         <v>44228</v>
       </c>
@@ -41757,7 +41856,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="36">
         <v>44229</v>
       </c>
@@ -41810,7 +41909,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="36">
         <v>44230</v>
       </c>
@@ -41863,7 +41962,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="36">
         <v>44231</v>
       </c>
@@ -41916,7 +42015,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="36">
         <v>44232</v>
       </c>
@@ -41969,7 +42068,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="36">
         <v>44233</v>
       </c>
@@ -42022,7 +42121,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="36">
         <v>44234</v>
       </c>
@@ -42075,7 +42174,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="36">
         <v>44235</v>
       </c>
@@ -42128,7 +42227,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="36">
         <v>44236</v>
       </c>
@@ -42181,7 +42280,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="36">
         <v>44237</v>
       </c>
@@ -42234,7 +42333,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="36">
         <v>44238</v>
       </c>
@@ -42287,7 +42386,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="36">
         <v>44239</v>
       </c>
@@ -42340,7 +42439,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="36">
         <v>44240</v>
       </c>
@@ -42393,7 +42492,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="36">
         <v>44241</v>
       </c>
@@ -42446,7 +42545,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="36">
         <v>44242</v>
       </c>
@@ -42499,7 +42598,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="36">
         <v>44243</v>
       </c>
@@ -42550,6 +42649,59 @@
       </c>
       <c r="Q162" s="117">
         <v>1383</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A163" s="36">
+        <v>44244</v>
+      </c>
+      <c r="B163" s="2">
+        <v>144</v>
+      </c>
+      <c r="C163" s="2">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>72</v>
+      </c>
+      <c r="F163" s="2">
+        <v>160</v>
+      </c>
+      <c r="G163" s="2">
+        <v>39</v>
+      </c>
+      <c r="H163" s="2">
+        <v>341</v>
+      </c>
+      <c r="I163" s="2">
+        <v>28</v>
+      </c>
+      <c r="J163" s="2">
+        <v>207</v>
+      </c>
+      <c r="K163" s="2">
+        <v>234</v>
+      </c>
+      <c r="L163" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M163" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N163" s="2">
+        <v>44</v>
+      </c>
+      <c r="O163" s="2">
+        <v>8</v>
+      </c>
+      <c r="P163" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q163" s="117">
+        <v>1317</v>
       </c>
     </row>
   </sheetData>
@@ -42571,17 +42723,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="8.5703125" style="41"/>
+    <col min="1" max="1" width="11.54296875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="8.54296875" style="41"/>
     <col min="18" max="18" width="3" style="41" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="75" customWidth="1"/>
-    <col min="20" max="35" width="10.5703125" style="75" customWidth="1"/>
-    <col min="36" max="16384" width="8.5703125" style="41"/>
+    <col min="19" max="19" width="12.453125" style="75" customWidth="1"/>
+    <col min="20" max="35" width="10.54296875" style="75" customWidth="1"/>
+    <col min="36" max="16384" width="8.54296875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>49</v>
       </c>
@@ -42613,7 +42765,7 @@
       <c r="AH1" s="41"/>
       <c r="AI1" s="41"/>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="157" t="s">
         <v>26</v>
       </c>
@@ -42642,7 +42794,7 @@
       <c r="AH2" s="41"/>
       <c r="AI2" s="41"/>
     </row>
-    <row r="3" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
@@ -42747,7 +42899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="50"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="61"/>
@@ -42803,7 +42955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="61"/>
@@ -42859,7 +43011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="Q6" s="51"/>
       <c r="R6" s="61"/>
@@ -42915,7 +43067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="61"/>
@@ -42971,7 +43123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
       <c r="Q8" s="51"/>
       <c r="R8" s="61"/>
@@ -43027,7 +43179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="52"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -43098,7 +43250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -43169,7 +43321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
@@ -43240,7 +43392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="59">
         <v>43916</v>
       </c>
@@ -43345,7 +43497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="62">
         <v>43917</v>
       </c>
@@ -43450,7 +43602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="62">
         <v>43918</v>
       </c>
@@ -43555,7 +43707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="62">
         <v>43919</v>
       </c>
@@ -43660,7 +43812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="62">
         <v>43920</v>
       </c>
@@ -43765,7 +43917,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="62">
         <v>43921</v>
       </c>
@@ -43870,7 +44022,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="62">
         <v>43922</v>
       </c>
@@ -43975,7 +44127,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="62">
         <v>43923</v>
       </c>
@@ -44080,7 +44232,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="62">
         <v>43924</v>
       </c>
@@ -44185,7 +44337,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="62">
         <v>43925</v>
       </c>
@@ -44290,7 +44442,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="62">
         <v>43926</v>
       </c>
@@ -44395,7 +44547,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="62">
         <v>43927</v>
       </c>
@@ -44500,7 +44652,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="62">
         <v>43928</v>
       </c>
@@ -44605,7 +44757,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="62">
         <v>43929</v>
       </c>
@@ -44710,7 +44862,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="62">
         <v>43930</v>
       </c>
@@ -44815,7 +44967,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="62">
         <v>43931</v>
       </c>
@@ -44920,7 +45072,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="62">
         <v>43932</v>
       </c>
@@ -45025,7 +45177,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="62">
         <v>43933</v>
       </c>
@@ -45130,7 +45282,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="62">
         <v>43934</v>
       </c>
@@ -45235,7 +45387,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="62">
         <v>43935</v>
       </c>
@@ -45340,7 +45492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="62">
         <v>43936</v>
       </c>
@@ -45445,7 +45597,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="62">
         <v>43937</v>
       </c>
@@ -45550,7 +45702,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="62">
         <v>43938</v>
       </c>
@@ -45655,7 +45807,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="62">
         <v>43939</v>
       </c>
@@ -45760,7 +45912,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="67">
         <v>43940</v>
       </c>
@@ -45865,7 +46017,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="67">
         <v>43941</v>
       </c>
@@ -45970,7 +46122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="67">
         <v>43942</v>
       </c>
@@ -46075,7 +46227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="67">
         <v>43943</v>
       </c>
@@ -46180,7 +46332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="67">
         <v>43944</v>
       </c>
@@ -46285,7 +46437,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="67">
         <v>43945</v>
       </c>
@@ -46390,7 +46542,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="67">
         <v>43946</v>
       </c>
@@ -46495,7 +46647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" s="67">
         <v>43947</v>
       </c>
@@ -46600,7 +46752,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="67">
         <v>43948</v>
       </c>
@@ -46705,7 +46857,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="67">
         <v>43949</v>
       </c>
@@ -46810,7 +46962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="67">
         <v>43950</v>
       </c>
@@ -46915,7 +47067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="67">
         <v>43951</v>
       </c>
@@ -47020,7 +47172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="67">
         <v>43952</v>
       </c>
@@ -47125,7 +47277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="67">
         <v>43953</v>
       </c>
@@ -47230,7 +47382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="67">
         <v>43954</v>
       </c>
@@ -47335,7 +47487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="67">
         <v>43955</v>
       </c>
@@ -47440,7 +47592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="67">
         <v>43956</v>
       </c>
@@ -47545,7 +47697,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="67">
         <v>43957</v>
       </c>
@@ -47650,7 +47802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="67">
         <v>43958</v>
       </c>
@@ -47755,7 +47907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="67">
         <v>43959</v>
       </c>
@@ -47860,7 +48012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="67">
         <v>43960</v>
       </c>
@@ -47965,7 +48117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="67">
         <v>43961</v>
       </c>
@@ -48070,7 +48222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="67">
         <v>43962</v>
       </c>
@@ -48175,7 +48327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="67">
         <v>43963</v>
       </c>
@@ -48280,7 +48432,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="67">
         <v>43964</v>
       </c>
@@ -48385,7 +48537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="67">
         <v>43965</v>
       </c>
@@ -48490,7 +48642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="67">
         <v>43966</v>
       </c>
@@ -48595,7 +48747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="67">
         <v>43967</v>
       </c>
@@ -48700,7 +48852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="67">
         <v>43968</v>
       </c>
@@ -48805,7 +48957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="67">
         <v>43969</v>
       </c>
@@ -48910,7 +49062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="67">
         <v>43970</v>
       </c>
@@ -49015,7 +49167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="67">
         <v>43971</v>
       </c>
@@ -49120,7 +49272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="67">
         <v>43972</v>
       </c>
@@ -49225,7 +49377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="67">
         <v>43973</v>
       </c>
@@ -49330,7 +49482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="67">
         <v>43974</v>
       </c>
@@ -49435,7 +49587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="67">
         <v>43975</v>
       </c>
@@ -49540,7 +49692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="67">
         <v>43976</v>
       </c>
@@ -49645,7 +49797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="67">
         <v>43977</v>
       </c>
@@ -49750,7 +49902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="67">
         <v>43978</v>
       </c>
@@ -49855,7 +50007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="67">
         <v>43979</v>
       </c>
@@ -49960,7 +50112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="67">
         <v>43980</v>
       </c>
@@ -50065,7 +50217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="67">
         <v>43981</v>
       </c>
@@ -50170,7 +50322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="67">
         <v>43982</v>
       </c>
@@ -50275,7 +50427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="67">
         <v>43983</v>
       </c>
@@ -50380,7 +50532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="67">
         <v>43984</v>
       </c>
@@ -50485,7 +50637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="67">
         <v>43985</v>
       </c>
@@ -50590,7 +50742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="67">
         <v>43986</v>
       </c>
@@ -50695,7 +50847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="67">
         <v>43987</v>
       </c>
@@ -50800,7 +50952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="67">
         <v>43988</v>
       </c>
@@ -50905,7 +51057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="67">
         <v>43989</v>
       </c>
@@ -51010,7 +51162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" s="67">
         <v>43990</v>
       </c>
@@ -51115,7 +51267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="67">
         <v>43991</v>
       </c>
@@ -51220,7 +51372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="67">
         <v>43992</v>
       </c>
@@ -51325,7 +51477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="67">
         <v>43993</v>
       </c>
@@ -51430,7 +51582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="67">
         <v>43994</v>
       </c>
@@ -51535,7 +51687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="67">
         <v>43995</v>
       </c>
@@ -51640,7 +51792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="67">
         <v>43996</v>
       </c>
@@ -51745,7 +51897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="67">
         <v>43997</v>
       </c>
@@ -51850,7 +52002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" s="67">
         <v>43998</v>
       </c>
@@ -51955,7 +52107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" s="67">
         <v>43999</v>
       </c>
@@ -52060,7 +52212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="67">
         <v>44000</v>
       </c>
@@ -52165,7 +52317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" s="67">
         <v>44001</v>
       </c>
@@ -52270,7 +52422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" s="67">
         <v>44002</v>
       </c>
@@ -52375,7 +52527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" s="67">
         <v>44003</v>
       </c>
@@ -52480,7 +52632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" s="67">
         <v>44004</v>
       </c>
@@ -52585,7 +52737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" s="67">
         <v>44005</v>
       </c>
@@ -52690,7 +52842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A102" s="67">
         <v>44006</v>
       </c>
@@ -52795,7 +52947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A103" s="67">
         <v>44007</v>
       </c>
@@ -52900,7 +53052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A104" s="67">
         <v>44008</v>
       </c>
@@ -53005,7 +53157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A105" s="67">
         <v>44009</v>
       </c>
@@ -53110,7 +53262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A106" s="67">
         <v>44010</v>
       </c>
@@ -53215,7 +53367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A107" s="67">
         <v>44011</v>
       </c>
@@ -53320,7 +53472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A108" s="67">
         <v>44012</v>
       </c>
@@ -53425,7 +53577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A109" s="67">
         <v>44013</v>
       </c>
@@ -53530,7 +53682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A110" s="67">
         <v>44014</v>
       </c>
@@ -53635,7 +53787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A111" s="67">
         <v>44015</v>
       </c>
@@ -53740,7 +53892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A112" s="67">
         <v>44016</v>
       </c>
@@ -53845,7 +53997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A113" s="67">
         <v>44017</v>
       </c>
@@ -53950,7 +54102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A114" s="67">
         <v>44018</v>
       </c>
@@ -54055,7 +54207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A115" s="67">
         <v>44019</v>
       </c>
@@ -54160,7 +54312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A116" s="67">
         <v>44020</v>
       </c>
@@ -54265,7 +54417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A117" s="67">
         <v>44021</v>
       </c>
@@ -54370,7 +54522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A118" s="67">
         <v>44022</v>
       </c>
@@ -54475,7 +54627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A119" s="67">
         <v>44023</v>
       </c>
@@ -54580,7 +54732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A120" s="67">
         <v>44024</v>
       </c>
@@ -54685,7 +54837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A121" s="67">
         <v>44025</v>
       </c>
@@ -54790,7 +54942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A122" s="67">
         <v>44026</v>
       </c>
@@ -54895,7 +55047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A123" s="67">
         <v>44027</v>
       </c>
@@ -55000,7 +55152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A124" s="67">
         <v>44028</v>
       </c>
@@ -55105,7 +55257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A125" s="67">
         <v>44029</v>
       </c>
@@ -55210,7 +55362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A126" s="67">
         <v>44030</v>
       </c>
@@ -55315,7 +55467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A127" s="67">
         <v>44031</v>
       </c>
@@ -55420,7 +55572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A128" s="67">
         <v>44032</v>
       </c>
@@ -55525,7 +55677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A129" s="67">
         <v>44033</v>
       </c>
@@ -55630,7 +55782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A130" s="67">
         <v>44034</v>
       </c>
@@ -55684,7 +55836,7 @@
       </c>
       <c r="R130" s="42"/>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A131" s="67">
         <v>44035</v>
       </c>
@@ -55738,7 +55890,7 @@
       </c>
       <c r="R131" s="42"/>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A132" s="67">
         <v>44036</v>
       </c>
@@ -55792,7 +55944,7 @@
       </c>
       <c r="R132" s="42"/>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A133" s="67">
         <v>44037</v>
       </c>
@@ -55846,7 +55998,7 @@
       </c>
       <c r="R133" s="42"/>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A134" s="67">
         <v>44038</v>
       </c>
@@ -55900,7 +56052,7 @@
       </c>
       <c r="R134" s="42"/>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A135" s="67">
         <v>44039</v>
       </c>
@@ -55954,7 +56106,7 @@
       </c>
       <c r="R135" s="42"/>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A136" s="67">
         <v>44040</v>
       </c>
@@ -56008,7 +56160,7 @@
       </c>
       <c r="R136" s="42"/>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A137" s="67">
         <v>44041</v>
       </c>
@@ -56062,7 +56214,7 @@
       </c>
       <c r="R137" s="42"/>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A138" s="67">
         <v>44042</v>
       </c>
@@ -56116,7 +56268,7 @@
       </c>
       <c r="R138" s="42"/>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A139" s="67">
         <v>44043</v>
       </c>
@@ -56170,7 +56322,7 @@
       </c>
       <c r="R139" s="42"/>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A140" s="67">
         <v>44044</v>
       </c>
@@ -56224,7 +56376,7 @@
       </c>
       <c r="R140" s="42"/>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A141" s="67">
         <v>44045</v>
       </c>
@@ -56278,7 +56430,7 @@
       </c>
       <c r="R141" s="42"/>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A142" s="67">
         <v>44046</v>
       </c>
@@ -56332,7 +56484,7 @@
       </c>
       <c r="R142" s="42"/>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A143" s="67">
         <v>44047</v>
       </c>
@@ -56386,7 +56538,7 @@
       </c>
       <c r="R143" s="42"/>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A144" s="67">
         <v>44048</v>
       </c>
@@ -56440,7 +56592,7 @@
       </c>
       <c r="R144" s="42"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="67">
         <v>44049</v>
       </c>
@@ -56494,7 +56646,7 @@
       </c>
       <c r="R145" s="42"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="67">
         <v>44050</v>
       </c>
@@ -56548,7 +56700,7 @@
       </c>
       <c r="R146" s="42"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="67">
         <v>44051</v>
       </c>
@@ -56602,7 +56754,7 @@
       </c>
       <c r="R147" s="42"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="67">
         <v>44052</v>
       </c>
@@ -56656,7 +56808,7 @@
       </c>
       <c r="R148" s="42"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="67">
         <v>44053</v>
       </c>
@@ -56710,7 +56862,7 @@
       </c>
       <c r="R149" s="42"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="67">
         <v>44054</v>
       </c>
@@ -56764,7 +56916,7 @@
       </c>
       <c r="R150" s="42"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="67">
         <v>44055</v>
       </c>
@@ -56818,7 +56970,7 @@
       </c>
       <c r="R151" s="42"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="67">
         <v>44056</v>
       </c>
@@ -56872,7 +57024,7 @@
       </c>
       <c r="R152" s="42"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="67">
         <v>44057</v>
       </c>
@@ -56926,7 +57078,7 @@
       </c>
       <c r="R153" s="42"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="67">
         <v>44058</v>
       </c>
@@ -56980,7 +57132,7 @@
       </c>
       <c r="R154" s="42"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="67">
         <v>44059</v>
       </c>
@@ -57034,7 +57186,7 @@
       </c>
       <c r="R155" s="42"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="67">
         <v>44060</v>
       </c>
@@ -57088,7 +57240,7 @@
       </c>
       <c r="R156" s="42"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="67">
         <v>44061</v>
       </c>
@@ -57142,7 +57294,7 @@
       </c>
       <c r="R157" s="42"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="67">
         <v>44062</v>
       </c>
@@ -57196,7 +57348,7 @@
       </c>
       <c r="R158" s="42"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="67">
         <v>44063</v>
       </c>
@@ -57250,7 +57402,7 @@
       </c>
       <c r="R159" s="42"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="67">
         <v>44064</v>
       </c>
@@ -57304,7 +57456,7 @@
       </c>
       <c r="R160" s="42"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="67">
         <v>44065</v>
       </c>
@@ -57358,7 +57510,7 @@
       </c>
       <c r="R161" s="42"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="67">
         <v>44066</v>
       </c>
@@ -57412,7 +57564,7 @@
       </c>
       <c r="R162" s="42"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="67">
         <v>44067</v>
       </c>
@@ -57466,7 +57618,7 @@
       </c>
       <c r="R163" s="42"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="67">
         <v>44068</v>
       </c>
@@ -57520,7 +57672,7 @@
       </c>
       <c r="R164" s="42"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="67">
         <v>44069</v>
       </c>
@@ -57574,7 +57726,7 @@
       </c>
       <c r="R165" s="42"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="67">
         <v>44070</v>
       </c>
@@ -57628,7 +57780,7 @@
       </c>
       <c r="R166" s="42"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="67">
         <v>44071</v>
       </c>
@@ -57682,7 +57834,7 @@
       </c>
       <c r="R167" s="42"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="67">
         <v>44072</v>
       </c>
@@ -57736,7 +57888,7 @@
       </c>
       <c r="R168" s="42"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="67">
         <v>44073</v>
       </c>
@@ -57790,7 +57942,7 @@
       </c>
       <c r="R169" s="42"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="67">
         <v>44074</v>
       </c>
@@ -57844,7 +57996,7 @@
       </c>
       <c r="R170" s="42"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="67">
         <v>44075</v>
       </c>
@@ -57898,7 +58050,7 @@
       </c>
       <c r="R171" s="42"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="67">
         <v>44076</v>
       </c>
@@ -57952,7 +58104,7 @@
       </c>
       <c r="R172" s="42"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="67">
         <v>44077</v>
       </c>
@@ -58006,7 +58158,7 @@
       </c>
       <c r="R173" s="42"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="67">
         <v>44078</v>
       </c>
@@ -58060,7 +58212,7 @@
       </c>
       <c r="R174" s="42"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="67">
         <v>44079</v>
       </c>
@@ -58114,7 +58266,7 @@
       </c>
       <c r="R175" s="42"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="67">
         <v>44080</v>
       </c>
@@ -58168,7 +58320,7 @@
       </c>
       <c r="R176" s="42"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="67">
         <v>44081</v>
       </c>
@@ -58222,7 +58374,7 @@
       </c>
       <c r="R177" s="42"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="67">
         <v>44082</v>
       </c>
@@ -58276,7 +58428,7 @@
       </c>
       <c r="R178" s="42"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="67">
         <v>44083</v>
       </c>
@@ -58330,7 +58482,7 @@
       </c>
       <c r="R179" s="42"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="67">
         <v>44084</v>
       </c>
@@ -58384,7 +58536,7 @@
       </c>
       <c r="R180" s="42"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="67">
         <v>44085</v>
       </c>
@@ -58438,7 +58590,7 @@
       </c>
       <c r="R181" s="42"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="67">
         <v>44086</v>
       </c>
@@ -58492,7 +58644,7 @@
       </c>
       <c r="R182" s="42"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="67">
         <v>44087</v>
       </c>
@@ -58546,7 +58698,7 @@
       </c>
       <c r="R183" s="42"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="67">
         <v>44088</v>
       </c>
@@ -58600,7 +58752,7 @@
       </c>
       <c r="R184" s="42"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="80">
         <v>44089</v>
       </c>
@@ -58675,16 +58827,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="75" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="75" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="41"/>
-    <col min="19" max="19" width="14.5703125" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="8.5703125" style="41"/>
+    <col min="1" max="1" width="15.453125" style="75" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="75" customWidth="1"/>
+    <col min="18" max="18" width="8.54296875" style="41"/>
+    <col min="19" max="19" width="14.54296875" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="8.54296875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>50</v>
       </c>
@@ -58716,7 +58868,7 @@
       <c r="Z1" s="53"/>
       <c r="AA1" s="53"/>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>26</v>
       </c>
@@ -58740,7 +58892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
@@ -58844,7 +58996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="47">
         <v>43916</v>
       </c>
@@ -58948,7 +59100,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="47">
         <v>43917</v>
       </c>
@@ -59052,7 +59204,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="47">
         <v>43918</v>
       </c>
@@ -59156,7 +59308,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="47">
         <v>43919</v>
       </c>
@@ -59260,7 +59412,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="47">
         <v>43920</v>
       </c>
@@ -59364,7 +59516,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="47">
         <v>43921</v>
       </c>
@@ -59468,7 +59620,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="47">
         <v>43922</v>
       </c>
@@ -59572,7 +59724,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="47">
         <v>43923</v>
       </c>
@@ -59676,7 +59828,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="47">
         <v>43924</v>
       </c>
@@ -59780,7 +59932,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="47">
         <v>43925</v>
       </c>
@@ -59884,7 +60036,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="47">
         <v>43926</v>
       </c>
@@ -59988,7 +60140,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="47">
         <v>43927</v>
       </c>
@@ -60092,7 +60244,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="47">
         <v>43928</v>
       </c>
@@ -60196,7 +60348,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="47">
         <v>43929</v>
       </c>
@@ -60300,7 +60452,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="47">
         <v>43930</v>
       </c>
@@ -60404,7 +60556,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="47">
         <v>43931</v>
       </c>
@@ -60508,7 +60660,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="47">
         <v>43932</v>
       </c>
@@ -60612,7 +60764,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="47">
         <v>43933</v>
       </c>
@@ -60716,7 +60868,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="47">
         <v>43934</v>
       </c>
@@ -60820,7 +60972,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="47">
         <v>43935</v>
       </c>
@@ -60924,7 +61076,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="47">
         <v>43936</v>
       </c>
@@ -61028,7 +61180,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="47">
         <v>43937</v>
       </c>
@@ -61132,7 +61284,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="47">
         <v>43938</v>
       </c>
@@ -61236,7 +61388,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="47">
         <v>43939</v>
       </c>
@@ -61340,7 +61492,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="47">
         <v>43940</v>
       </c>
@@ -61444,7 +61596,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="47">
         <v>43941</v>
       </c>
@@ -61548,7 +61700,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="47">
         <v>43942</v>
       </c>
@@ -61652,7 +61804,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="47">
         <v>43943</v>
       </c>
@@ -61756,7 +61908,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="47">
         <v>43944</v>
       </c>
@@ -61860,7 +62012,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="47">
         <v>43945</v>
       </c>
@@ -61964,7 +62116,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="47">
         <v>43946</v>
       </c>
@@ -62068,7 +62220,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="47">
         <v>43947</v>
       </c>
@@ -62172,7 +62324,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="65">
         <v>43948</v>
       </c>
@@ -62276,7 +62428,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="65">
         <v>43949</v>
       </c>
@@ -62380,7 +62532,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="65">
         <v>43950</v>
       </c>
@@ -62484,7 +62636,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="65">
         <v>43951</v>
       </c>
@@ -62588,7 +62740,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="65">
         <v>43952</v>
       </c>
@@ -62692,7 +62844,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="65">
         <v>43953</v>
       </c>
@@ -62796,7 +62948,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="65">
         <v>43954</v>
       </c>
@@ -62900,7 +63052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" s="65">
         <v>43955</v>
       </c>
@@ -63004,7 +63156,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="65">
         <v>43956</v>
       </c>
@@ -63108,7 +63260,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="65">
         <v>43957</v>
       </c>
@@ -63212,7 +63364,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="65">
         <v>43958</v>
       </c>
@@ -63316,7 +63468,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="65">
         <v>43959</v>
       </c>
@@ -63420,7 +63572,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="65">
         <v>43960</v>
       </c>
@@ -63524,7 +63676,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="65">
         <v>43961</v>
       </c>
@@ -63628,7 +63780,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="65">
         <v>43962</v>
       </c>
@@ -63732,7 +63884,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="65">
         <v>43963</v>
       </c>
@@ -63836,7 +63988,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="65">
         <v>43964</v>
       </c>
@@ -63940,7 +64092,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="65">
         <v>43965</v>
       </c>
@@ -64044,7 +64196,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="65">
         <v>43966</v>
       </c>
@@ -64148,7 +64300,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="65">
         <v>43967</v>
       </c>
@@ -64252,7 +64404,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="65">
         <v>43968</v>
       </c>
@@ -64356,7 +64508,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="65">
         <v>43969</v>
       </c>
@@ -64460,7 +64612,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="65">
         <v>43970</v>
       </c>
@@ -64564,7 +64716,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="65">
         <v>43971</v>
       </c>
@@ -64668,7 +64820,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="65">
         <v>43972</v>
       </c>
@@ -64772,7 +64924,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="65">
         <v>43973</v>
       </c>
@@ -64876,7 +65028,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="65">
         <v>43974</v>
       </c>
@@ -64980,7 +65132,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="65">
         <v>43975</v>
       </c>
@@ -65084,7 +65236,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="65">
         <v>43976</v>
       </c>
@@ -65188,7 +65340,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="85">
         <v>43977</v>
       </c>
@@ -65292,7 +65444,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="85">
         <v>43978</v>
       </c>
@@ -65396,7 +65548,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="85">
         <v>43979</v>
       </c>
@@ -65500,7 +65652,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="85">
         <v>43980</v>
       </c>
@@ -65604,7 +65756,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="85">
         <v>43981</v>
       </c>
@@ -65708,7 +65860,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="85">
         <v>43982</v>
       </c>
@@ -65812,7 +65964,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="85">
         <v>43983</v>
       </c>
@@ -65916,7 +66068,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="85">
         <v>43984</v>
       </c>
@@ -66020,7 +66172,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="85">
         <v>43985</v>
       </c>
@@ -66124,7 +66276,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="85">
         <v>43986</v>
       </c>
@@ -66228,7 +66380,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="85">
         <v>43987</v>
       </c>
@@ -66332,7 +66484,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="85">
         <v>43988</v>
       </c>
@@ -66436,7 +66588,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="85">
         <v>43989</v>
       </c>
@@ -66540,7 +66692,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="85">
         <v>43990</v>
       </c>
@@ -66644,7 +66796,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="85">
         <v>43991</v>
       </c>
@@ -66748,7 +66900,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="85">
         <v>43992</v>
       </c>
@@ -66853,7 +67005,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" s="85">
         <v>43993</v>
       </c>
@@ -66958,7 +67110,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" s="85">
         <v>43994</v>
       </c>
@@ -67063,7 +67215,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" s="85">
         <v>43995</v>
       </c>
@@ -67167,7 +67319,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" s="85">
         <v>43996</v>
       </c>
@@ -67271,7 +67423,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" s="85">
         <v>43997</v>
       </c>
@@ -67375,7 +67527,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" s="85">
         <v>43998</v>
       </c>
@@ -67479,7 +67631,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" s="85">
         <v>43999</v>
       </c>
@@ -67583,7 +67735,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" s="85">
         <v>44000</v>
       </c>
@@ -67687,7 +67839,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" s="85">
         <v>44001</v>
       </c>
@@ -67791,7 +67943,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" s="85">
         <v>44002</v>
       </c>
@@ -67895,7 +68047,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" s="85">
         <v>44003</v>
       </c>
@@ -68000,7 +68152,7 @@
       </c>
       <c r="AJ91" s="87"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" s="85">
         <v>44004</v>
       </c>
@@ -68104,7 +68256,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="85">
         <v>44005</v>
       </c>
@@ -68209,7 +68361,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="85">
         <v>44006</v>
       </c>
@@ -68314,7 +68466,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="85">
         <v>44007</v>
       </c>
@@ -68418,7 +68570,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" s="85">
         <v>44008</v>
       </c>
@@ -68522,7 +68674,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="85">
         <v>44009</v>
       </c>
@@ -68626,7 +68778,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="85">
         <v>44010</v>
       </c>
@@ -68730,7 +68882,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="85">
         <v>44011</v>
       </c>
@@ -68834,7 +68986,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="85">
         <v>44012</v>
       </c>
@@ -68938,7 +69090,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="85">
         <v>44013</v>
       </c>
@@ -69042,7 +69194,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="85">
         <v>44014</v>
       </c>
@@ -69146,7 +69298,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" s="85">
         <v>44015</v>
       </c>
@@ -69250,7 +69402,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" s="85">
         <v>44016</v>
       </c>
@@ -69355,7 +69507,7 @@
       </c>
       <c r="AJ104" s="87"/>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" s="85">
         <v>44017</v>
       </c>
@@ -69459,7 +69611,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" s="85">
         <v>44018</v>
       </c>
@@ -69563,7 +69715,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" s="85">
         <v>44019</v>
       </c>
@@ -69667,7 +69819,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" s="85">
         <v>44020</v>
       </c>
@@ -69771,7 +69923,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" s="85">
         <v>44021</v>
       </c>
@@ -69875,7 +70027,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" s="85">
         <v>44022</v>
       </c>
@@ -69979,7 +70131,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" s="85">
         <v>44023</v>
       </c>
@@ -70083,7 +70235,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" s="85">
         <v>44024</v>
       </c>
@@ -70187,7 +70339,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A113" s="85">
         <v>44025</v>
       </c>
@@ -70291,7 +70443,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A114" s="85">
         <v>44026</v>
       </c>
@@ -70395,7 +70547,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A115" s="85">
         <v>44027</v>
       </c>
@@ -70499,7 +70651,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A116" s="85">
         <v>44028</v>
       </c>
@@ -70603,7 +70755,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A117" s="85">
         <v>44029</v>
       </c>
@@ -70707,7 +70859,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A118" s="85">
         <v>44030</v>
       </c>
@@ -70811,7 +70963,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A119" s="85">
         <v>44031</v>
       </c>
@@ -70918,7 +71070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A120" s="85">
         <v>44032</v>
       </c>
@@ -71022,7 +71174,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A121" s="85">
         <v>44033</v>
       </c>
@@ -71126,7 +71278,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A122" s="85">
         <v>44034</v>
       </c>
@@ -71179,7 +71331,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A123" s="85">
         <v>44035</v>
       </c>
@@ -71232,7 +71384,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A124" s="85">
         <v>44036</v>
       </c>
@@ -71285,7 +71437,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A125" s="85">
         <v>44037</v>
       </c>
@@ -71338,7 +71490,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A126" s="85">
         <v>44038</v>
       </c>
@@ -71392,7 +71544,7 @@
       </c>
       <c r="R126" s="90"/>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A127" s="85">
         <v>44039</v>
       </c>
@@ -71445,7 +71597,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A128" s="85">
         <v>44040</v>
       </c>
@@ -71498,7 +71650,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="85">
         <v>44041</v>
       </c>
@@ -71551,7 +71703,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="85">
         <v>44042</v>
       </c>
@@ -71604,7 +71756,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="85">
         <v>44043</v>
       </c>
@@ -71657,7 +71809,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="85">
         <v>44044</v>
       </c>
@@ -71710,7 +71862,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="85">
         <v>44045</v>
       </c>
@@ -71763,7 +71915,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="85">
         <v>44046</v>
       </c>
@@ -71816,7 +71968,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="85">
         <v>44047</v>
       </c>
@@ -71869,7 +72021,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="85">
         <v>44048</v>
       </c>
@@ -71922,7 +72074,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="85">
         <v>44049</v>
       </c>
@@ -71975,7 +72127,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="85">
         <v>44050</v>
       </c>
@@ -72028,7 +72180,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="85">
         <v>44051</v>
       </c>
@@ -72081,7 +72233,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="85">
         <v>44052</v>
       </c>
@@ -72134,7 +72286,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="85">
         <v>44053</v>
       </c>
@@ -72187,7 +72339,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="85">
         <v>44054</v>
       </c>
@@ -72240,7 +72392,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="85">
         <v>44055</v>
       </c>
@@ -72293,7 +72445,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="85">
         <v>44056</v>
       </c>
@@ -72346,7 +72498,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="85">
         <v>44057</v>
       </c>
@@ -72400,7 +72552,7 @@
       </c>
       <c r="R145" s="87"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="85">
         <v>44058</v>
       </c>
@@ -72453,7 +72605,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="85">
         <v>44059</v>
       </c>
@@ -72506,7 +72658,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="85">
         <v>44060</v>
       </c>
@@ -72559,7 +72711,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="85">
         <v>44061</v>
       </c>
@@ -72612,7 +72764,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="85">
         <v>44062</v>
       </c>
@@ -72665,7 +72817,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="85">
         <v>44063</v>
       </c>
@@ -72718,7 +72870,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="85">
         <v>44064</v>
       </c>
@@ -72771,7 +72923,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="85">
         <v>44065</v>
       </c>
@@ -72824,7 +72976,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="85">
         <v>44066</v>
       </c>
@@ -72877,7 +73029,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="85">
         <v>44067</v>
       </c>
@@ -72930,7 +73082,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="85">
         <v>44068</v>
       </c>
@@ -72983,7 +73135,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="85">
         <v>44069</v>
       </c>
@@ -73036,7 +73188,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="85">
         <v>44070</v>
       </c>
@@ -73089,7 +73241,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="85">
         <v>44071</v>
       </c>
@@ -73142,7 +73294,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="85">
         <v>44072</v>
       </c>
@@ -73195,7 +73347,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="85">
         <v>44073</v>
       </c>
@@ -73248,7 +73400,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="85">
         <v>44074</v>
       </c>
@@ -73301,7 +73453,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="85">
         <v>44075</v>
       </c>
@@ -73354,7 +73506,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="85">
         <v>44076</v>
       </c>
@@ -73407,7 +73559,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="85">
         <v>44077</v>
       </c>
@@ -73460,7 +73612,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="85">
         <v>44078</v>
       </c>
@@ -73513,7 +73665,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="85">
         <v>44079</v>
       </c>
@@ -73566,7 +73718,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="85">
         <v>44080</v>
       </c>
@@ -73620,7 +73772,7 @@
       </c>
       <c r="R168" s="90"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="85">
         <v>44081</v>
       </c>
@@ -73673,7 +73825,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="85">
         <v>44082</v>
       </c>
@@ -73726,7 +73878,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="85">
         <v>44083</v>
       </c>
@@ -73779,7 +73931,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="85">
         <v>44084</v>
       </c>
@@ -73832,7 +73984,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="85">
         <v>44085</v>
       </c>
@@ -73885,7 +74037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="85">
         <v>44086</v>
       </c>
@@ -73938,7 +74090,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="85">
         <v>44087</v>
       </c>
@@ -73991,7 +74143,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="85">
         <v>44088</v>
       </c>
@@ -74044,7 +74196,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" s="91">
         <v>44089</v>
       </c>
@@ -74104,7 +74256,7 @@
 </worksheet>
 </file>
 
-<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -74129,7 +74281,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2021-02-16T12:20:29Z</value>
+      <value order="0">2021-02-17T10:59:54Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -74144,13 +74296,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA46763782</value>
+      <value order="0">vA46786939</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">70.12</value>
+      <value order="0">70.15</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">632</value>
+      <value order="0">635</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -74190,7 +74342,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>
